--- a/tables/DevicesInfo.xlsx
+++ b/tables/DevicesInfo.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="tsukanov" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">GroupID</t>
   </si>
@@ -128,6 +128,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://gidrometpribors.ru/catalog/anemorumbometry-anemorumbografy/peleng-sf-03-anemorumbometr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZetLab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Регистратор сейсмических сигналов с датчиком CME-6111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zetlab.com/shop/izmeritelnoe-oborudovanie/seysmostantsii/registrator-seysmicheskih-signalov-s-datchikom-cme-6111/</t>
   </si>
 </sst>
 </file>
@@ -137,7 +149,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -167,7 +179,7 @@
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -180,20 +192,14 @@
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -238,29 +244,37 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -272,15 +286,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -395,144 +400,158 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="104.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="146.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="104.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="146.16"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="4" customFormat="false" ht="64.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+    <row r="5" customFormat="false" ht="64.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+    <row r="6" customFormat="false" ht="80.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+    <row r="7" customFormat="false" ht="32.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+    <row r="8" customFormat="false" ht="48.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+    <row r="9" customFormat="false" ht="32.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
